--- a/TratatainskLenguage.xlsx
+++ b/TratatainskLenguage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>hak</t>
   </si>
@@ -147,9 +147,6 @@
     <t>пустота</t>
   </si>
   <si>
-    <t>ничего</t>
-  </si>
-  <si>
     <t>вода</t>
   </si>
   <si>
@@ -286,6 +283,192 @@
   </si>
   <si>
     <t>olad</t>
+  </si>
+  <si>
+    <t>poj</t>
+  </si>
+  <si>
+    <t>камень</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>двигаться</t>
+  </si>
+  <si>
+    <t>pand</t>
+  </si>
+  <si>
+    <t>дать</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>видеть</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>ты</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>ena</t>
+  </si>
+  <si>
+    <t>enrd</t>
+  </si>
+  <si>
+    <t>стричь</t>
+  </si>
+  <si>
+    <t>шерсть</t>
+  </si>
+  <si>
+    <t>мы</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>число</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>xan</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>oan</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>xnan</t>
+  </si>
+  <si>
+    <t>десять</t>
+  </si>
+  <si>
+    <t>два</t>
+  </si>
+  <si>
+    <t>три</t>
+  </si>
+  <si>
+    <t>четыре</t>
+  </si>
+  <si>
+    <t>пять</t>
+  </si>
+  <si>
+    <t>шесть</t>
+  </si>
+  <si>
+    <t>семь</t>
+  </si>
+  <si>
+    <t>восемь</t>
+  </si>
+  <si>
+    <t>девять</t>
+  </si>
+  <si>
+    <t>один, раз</t>
+  </si>
+  <si>
+    <t>ftuld</t>
+  </si>
+  <si>
+    <t>название, имя</t>
+  </si>
+  <si>
+    <t>psana</t>
+  </si>
+  <si>
+    <t>большой</t>
+  </si>
+  <si>
+    <t>enabos</t>
+  </si>
+  <si>
+    <t>поле, луг</t>
+  </si>
+  <si>
+    <t>hpxdf</t>
+  </si>
+  <si>
+    <t>самый</t>
+  </si>
+  <si>
+    <t>napht</t>
+  </si>
+  <si>
+    <t>napft</t>
+  </si>
+  <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>удручать</t>
+  </si>
+  <si>
+    <t>ondft</t>
+  </si>
+  <si>
+    <t>разделить</t>
+  </si>
+  <si>
+    <t>jbos</t>
+  </si>
+  <si>
+    <t>верх</t>
+  </si>
+  <si>
+    <t>rbos</t>
+  </si>
+  <si>
+    <t>низ</t>
+  </si>
+  <si>
+    <t>dlobos</t>
+  </si>
+  <si>
+    <t>до сих пор, всё ещё</t>
+  </si>
+  <si>
+    <t>ничего, уничтожить</t>
+  </si>
+  <si>
+    <t>noupoj + fj = унчитожить что-то (или чье-то ничего</t>
   </si>
 </sst>
 </file>
@@ -644,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -666,355 +849,598 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
